--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAURABH JOG\Documents\Acecom Solutions\autoaudit\AutoAuditDemo\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F13B79-CAD2-4120-96B3-8F0C471AFA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359610F1-2130-42AC-9650-BB99DCF5DF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38CBBFBC-20E9-4935-B553-86166ADB6B27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="542">
   <si>
     <t>Criteria</t>
   </si>
@@ -1851,12 +1851,15 @@
   <si>
     <t>Audit_Area</t>
   </si>
+  <si>
+    <t>General</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,15 +1890,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1917,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1935,9 +1929,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2269,13 +2260,13 @@
   <dimension ref="A1:F487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="131.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
@@ -3146,6 +3137,9 @@
       <c r="B79" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C79" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
@@ -3154,7 +3148,9 @@
       <c r="B80" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -3163,6 +3159,9 @@
       <c r="B81" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C81" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
@@ -3171,6 +3170,9 @@
       <c r="B82" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C82" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
@@ -3179,6 +3181,9 @@
       <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C83" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
@@ -3187,6 +3192,9 @@
       <c r="B84" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C84" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
@@ -3195,6 +3203,9 @@
       <c r="B85" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C85" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
@@ -3203,6 +3214,9 @@
       <c r="B86" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C86" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
@@ -3211,13 +3225,19 @@
       <c r="B87" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C87" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>100</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3227,6 +3247,9 @@
       <c r="B89" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C89" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
@@ -3235,6 +3258,9 @@
       <c r="B90" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C90" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
@@ -3243,6 +3269,9 @@
       <c r="B91" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C91" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
@@ -3251,6 +3280,9 @@
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
@@ -3325,6 +3357,9 @@
       <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C99" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -3333,6 +3368,9 @@
       <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C100" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -3341,6 +3379,9 @@
       <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C101" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3349,6 +3390,9 @@
       <c r="B102" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C102" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
@@ -3357,6 +3401,9 @@
       <c r="B103" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C103" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -3365,6 +3412,9 @@
       <c r="B104" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C104" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
@@ -3373,6 +3423,9 @@
       <c r="B105" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C105" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
@@ -3381,6 +3434,9 @@
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C106" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
@@ -3389,6 +3445,9 @@
       <c r="B107" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C107" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
@@ -3397,6 +3456,9 @@
       <c r="B108" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C108" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
@@ -3548,6 +3610,9 @@
       <c r="B122" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C122" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
@@ -3556,6 +3621,9 @@
       <c r="B123" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C123" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
@@ -3564,6 +3632,9 @@
       <c r="B124" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C124" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
@@ -3572,6 +3643,9 @@
       <c r="B125" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C125" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
@@ -3580,6 +3654,9 @@
       <c r="B126" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C126" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
@@ -3588,6 +3665,9 @@
       <c r="B127" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C127" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
@@ -3596,6 +3676,9 @@
       <c r="B128" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C128" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -3604,6 +3687,9 @@
       <c r="B129" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C129" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
@@ -3612,6 +3698,9 @@
       <c r="B130" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C130" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
@@ -3620,6 +3709,9 @@
       <c r="B131" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C131" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
@@ -3628,6 +3720,9 @@
       <c r="B132" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C132" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
@@ -3636,6 +3731,9 @@
       <c r="B133" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C133" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
@@ -3644,6 +3742,9 @@
       <c r="B134" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C134" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
@@ -3652,6 +3753,9 @@
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C135" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
@@ -3660,6 +3764,9 @@
       <c r="B136" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C136" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
@@ -3723,6 +3830,9 @@
       <c r="B142" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C142" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
@@ -3731,6 +3841,9 @@
       <c r="B143" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C143" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
@@ -3739,133 +3852,184 @@
       <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>145</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -3875,6 +4039,9 @@
       <c r="B161" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C161" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
@@ -3883,6 +4050,9 @@
       <c r="B162" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C162" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
@@ -3891,6 +4061,9 @@
       <c r="B163" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C163" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="164" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
@@ -3899,13 +4072,19 @@
       <c r="B164" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C164" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>145</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -4360,7 +4539,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -4619,6 +4798,9 @@
       <c r="B230" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C230" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
@@ -4627,6 +4809,9 @@
       <c r="B231" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C231" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
@@ -4635,6 +4820,9 @@
       <c r="B232" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C232" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
@@ -4643,6 +4831,9 @@
       <c r="B233" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C233" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
@@ -4651,6 +4842,9 @@
       <c r="B234" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C234" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="235" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
@@ -4659,6 +4853,9 @@
       <c r="B235" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C235" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="236" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
@@ -4667,6 +4864,9 @@
       <c r="B236" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C236" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
@@ -4675,6 +4875,9 @@
       <c r="B237" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C237" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
@@ -4683,6 +4886,9 @@
       <c r="B238" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C238" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="239" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
@@ -4691,6 +4897,9 @@
       <c r="B239" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C239" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
@@ -4699,6 +4908,9 @@
       <c r="B240" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C240" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
@@ -4773,13 +4985,19 @@
       <c r="B247" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C247" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>262</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4789,6 +5007,9 @@
       <c r="B249" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C249" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
@@ -4797,6 +5018,9 @@
       <c r="B250" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C250" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="251" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
@@ -4805,6 +5029,9 @@
       <c r="B251" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C251" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="252" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
@@ -4813,6 +5040,9 @@
       <c r="B252" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C252" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="253" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
@@ -4821,6 +5051,9 @@
       <c r="B253" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C253" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
@@ -5252,7 +5485,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -5588,6 +5821,9 @@
       <c r="B323" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C323" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
@@ -5596,6 +5832,9 @@
       <c r="B324" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C324" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
@@ -5604,6 +5843,9 @@
       <c r="B325" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C325" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
@@ -5612,6 +5854,9 @@
       <c r="B326" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C326" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="327" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
@@ -5620,6 +5865,9 @@
       <c r="B327" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C327" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="328" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
@@ -5628,6 +5876,9 @@
       <c r="B328" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C328" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="329" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
@@ -5636,6 +5887,9 @@
       <c r="B329" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C329" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
@@ -5644,6 +5898,9 @@
       <c r="B330" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C330" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
@@ -5652,6 +5909,9 @@
       <c r="B331" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C331" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="332" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
@@ -5660,6 +5920,9 @@
       <c r="B332" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C332" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="333" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
@@ -5668,6 +5931,9 @@
       <c r="B333" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C333" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
@@ -5676,6 +5942,9 @@
       <c r="B334" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C334" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
@@ -5684,6 +5953,9 @@
       <c r="B335" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C335" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
@@ -5692,6 +5964,9 @@
       <c r="B336" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C336" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="337" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
@@ -5793,7 +6068,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="8" t="s">
         <v>370</v>
       </c>
       <c r="B346" s="3" t="s">
@@ -5815,7 +6090,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="8" t="s">
         <v>372</v>
       </c>
       <c r="B348" s="3" t="s">
@@ -5848,275 +6123,377 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A351" s="11" t="s">
+      <c r="A351" s="10" t="s">
         <v>522</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C351" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="352" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
+      <c r="A352" s="10" t="s">
         <v>523</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A353" s="11" t="s">
+      <c r="C352" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A353" s="10" t="s">
         <v>524</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A354" s="11" t="s">
+      <c r="C353" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A354" s="10" t="s">
         <v>525</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A355" s="11" t="s">
+      <c r="C354" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A355" s="10" t="s">
         <v>526</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A356" s="11" t="s">
+      <c r="C355" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A356" s="10" t="s">
         <v>527</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A357" s="11" t="s">
+      <c r="C356" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A357" s="10" t="s">
         <v>528</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A358" s="11" t="s">
+      <c r="C357" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A358" s="10" t="s">
         <v>529</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A359" s="11" t="s">
+      <c r="C358" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A359" s="10" t="s">
         <v>530</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A360" s="11" t="s">
+      <c r="C359" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A360" s="10" t="s">
         <v>531</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A361" s="11" t="s">
+      <c r="C360" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="10" t="s">
         <v>532</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A362" s="11" t="s">
+      <c r="C361" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A362" s="10" t="s">
         <v>533</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A363" s="11" t="s">
+      <c r="C362" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A363" s="10" t="s">
         <v>534</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C363" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C364" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C365" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C366" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C367" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C368" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C369" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C370" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C371" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C372" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C373" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C374" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C375" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C376" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C377" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C378" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C380" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C383" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>392</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6126,6 +6503,9 @@
       <c r="B385" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C385" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="386" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
@@ -6134,6 +6514,9 @@
       <c r="B386" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C386" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
@@ -6142,6 +6525,9 @@
       <c r="B387" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C387" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
@@ -6150,6 +6536,9 @@
       <c r="B388" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C388" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
@@ -6158,6 +6547,9 @@
       <c r="B389" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C389" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
@@ -6166,6 +6558,9 @@
       <c r="B390" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C390" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="391" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
@@ -6174,6 +6569,9 @@
       <c r="B391" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C391" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
@@ -6182,6 +6580,9 @@
       <c r="B392" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C392" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
@@ -6190,6 +6591,9 @@
       <c r="B393" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C393" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
@@ -6407,6 +6811,9 @@
       <c r="B413" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C413" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
@@ -6415,6 +6822,9 @@
       <c r="B414" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C414" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
@@ -6423,6 +6833,9 @@
       <c r="B415" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C415" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
@@ -6431,6 +6844,9 @@
       <c r="B416" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C416" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
@@ -6439,6 +6855,9 @@
       <c r="B417" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C417" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
@@ -6447,6 +6866,9 @@
       <c r="B418" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C418" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
@@ -6455,6 +6877,9 @@
       <c r="B419" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C419" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
@@ -6463,6 +6888,9 @@
       <c r="B420" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C420" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
@@ -6471,13 +6899,19 @@
       <c r="B421" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C421" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="8" t="s">
         <v>435</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -7070,12 +7504,12 @@
       <c r="B476" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C476" s="12" t="s">
+      <c r="C476" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D476" s="12"/>
-      <c r="E476" s="12"/>
-      <c r="F476" s="12"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
+      <c r="F476" s="11"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
@@ -7084,12 +7518,12 @@
       <c r="B477" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C477" s="12" t="s">
+      <c r="C477" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13"/>
-      <c r="F477" s="13"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="12"/>
+      <c r="F477" s="12"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
@@ -7098,12 +7532,12 @@
       <c r="B478" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C478" s="12" t="s">
+      <c r="C478" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13"/>
-      <c r="F478" s="13"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
+      <c r="F478" s="12"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
@@ -7112,12 +7546,12 @@
       <c r="B479" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C479" s="12" t="s">
+      <c r="C479" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13"/>
-      <c r="F479" s="13"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="12"/>
+      <c r="F479" s="12"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
@@ -7126,12 +7560,12 @@
       <c r="B480" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C480" s="12" t="s">
+      <c r="C480" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13"/>
-      <c r="F480" s="13"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="12"/>
+      <c r="F480" s="12"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
@@ -7140,12 +7574,12 @@
       <c r="B481" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C481" s="12" t="s">
+      <c r="C481" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
-      <c r="F481" s="13"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="12"/>
+      <c r="F481" s="12"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
@@ -7154,12 +7588,12 @@
       <c r="B482" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C482" s="12" t="s">
+      <c r="C482" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D482" s="13"/>
-      <c r="E482" s="13"/>
-      <c r="F482" s="13"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12"/>
+      <c r="F482" s="12"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
@@ -7168,7 +7602,7 @@
       <c r="B483" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C483" s="12" t="s">
+      <c r="C483" s="11" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7179,7 +7613,7 @@
       <c r="B484" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C484" s="12" t="s">
+      <c r="C484" s="11" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7190,7 +7624,7 @@
       <c r="B485" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C485" s="12" t="s">
+      <c r="C485" s="11" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7198,9 +7632,10 @@
       <c r="A486" s="5"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A487" s="9"/>
+      <c r="A487" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C485" xr:uid="{F61829F0-C764-4F6C-9242-A4FF209C6E9E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
